--- a/excel_sheets/meeting_dates.xlsx
+++ b/excel_sheets/meeting_dates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6a97429bfd31d15/Documents/GitHub/Stock_Markets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\OneDrive\Documents\GitHub\Stock_Markets\excel_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{758D743E-461D-4176-9E24-ACC74421204B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2318987-38F0-487A-9BDA-BCB53C5FE246}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2C1239-08F7-4D0A-8893-640F68068FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,6 +40,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,10 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -88,10 +90,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,7 +358,7 @@
   <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,7 +1749,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
+      <c r="A156" s="1">
         <v>43586</v>
       </c>
       <c r="B156">

--- a/excel_sheets/meeting_dates.xlsx
+++ b/excel_sheets/meeting_dates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\OneDrive\Documents\GitHub\Stock_Markets\excel_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2C1239-08F7-4D0A-8893-640F68068FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C967D5-D0BB-4C02-94D8-83A4943EF4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -74,7 +74,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C193"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,40 +380,31 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>36558</v>
+        <v>36193</v>
       </c>
       <c r="B2">
         <v>1</v>
-      </c>
-      <c r="C2">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>36606</v>
+        <v>36249</v>
       </c>
       <c r="B3">
         <v>1</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>36662</v>
+        <v>36298</v>
       </c>
       <c r="B4">
         <v>1</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>36705</v>
+        <v>36340</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -421,7 +412,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>36760</v>
+        <v>36396</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -429,7 +420,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>36802</v>
+        <v>36438</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -437,7 +428,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>36845</v>
+        <v>36480</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -445,7 +436,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>36879</v>
+        <v>36515</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -453,143 +444,146 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>36922</v>
+        <v>36558</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>-50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>36970</v>
+        <v>36606</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>-50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>37026</v>
+        <v>36662</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>37069</v>
+        <v>36705</v>
       </c>
       <c r="B13">
         <v>1</v>
-      </c>
-      <c r="C13">
-        <v>-25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>37124</v>
+        <v>36760</v>
       </c>
       <c r="B14">
         <v>1</v>
-      </c>
-      <c r="C14">
-        <v>-25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>37166</v>
+        <v>36802</v>
       </c>
       <c r="B15">
         <v>1</v>
-      </c>
-      <c r="C15">
-        <v>-50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>37201</v>
+        <v>36845</v>
       </c>
       <c r="B16">
         <v>1</v>
-      </c>
-      <c r="C16">
-        <v>-50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>37236</v>
+        <v>36879</v>
       </c>
       <c r="B17">
         <v>1</v>
-      </c>
-      <c r="C17">
-        <v>-25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>37285</v>
+        <v>36922</v>
       </c>
       <c r="B18">
         <v>1</v>
+      </c>
+      <c r="C18">
+        <v>-50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>37334</v>
+        <v>36970</v>
       </c>
       <c r="B19">
         <v>1</v>
+      </c>
+      <c r="C19">
+        <v>-50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>37383</v>
+        <v>37026</v>
       </c>
       <c r="B20">
         <v>1</v>
+      </c>
+      <c r="C20">
+        <v>-50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>37433</v>
+        <v>37069</v>
       </c>
       <c r="B21">
         <v>1</v>
+      </c>
+      <c r="C21">
+        <v>-25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>37481</v>
+        <v>37124</v>
       </c>
       <c r="B22">
         <v>1</v>
+      </c>
+      <c r="C22">
+        <v>-25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>37523</v>
+        <v>37166</v>
       </c>
       <c r="B23">
         <v>1</v>
+      </c>
+      <c r="C23">
+        <v>-50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>37566</v>
+        <v>37201</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -600,15 +594,18 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>37600</v>
+        <v>37236</v>
       </c>
       <c r="B25">
         <v>1</v>
+      </c>
+      <c r="C25">
+        <v>-25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>37650</v>
+        <v>37285</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -616,7 +613,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>37698</v>
+        <v>37334</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -624,7 +621,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>37747</v>
+        <v>37383</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -632,18 +629,15 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>37797</v>
+        <v>37433</v>
       </c>
       <c r="B29">
         <v>1</v>
-      </c>
-      <c r="C29">
-        <v>-25</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>37845</v>
+        <v>37481</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -651,7 +645,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>37880</v>
+        <v>37523</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -659,15 +653,18 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>37922</v>
+        <v>37566</v>
       </c>
       <c r="B32">
         <v>1</v>
+      </c>
+      <c r="C32">
+        <v>-50</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>37964</v>
+        <v>37600</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -675,7 +672,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>38014</v>
+        <v>37650</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -683,7 +680,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>38062</v>
+        <v>37698</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -691,7 +688,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>38111</v>
+        <v>37747</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -699,95 +696,74 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>38168</v>
+        <v>37797</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>25</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>38209</v>
+        <v>37845</v>
       </c>
       <c r="B38">
         <v>1</v>
-      </c>
-      <c r="C38">
-        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>38251</v>
+        <v>37880</v>
       </c>
       <c r="B39">
         <v>1</v>
-      </c>
-      <c r="C39">
-        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>38301</v>
+        <v>37922</v>
       </c>
       <c r="B40">
         <v>1</v>
-      </c>
-      <c r="C40">
-        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>38335</v>
+        <v>37964</v>
       </c>
       <c r="B41">
         <v>1</v>
-      </c>
-      <c r="C41">
-        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>38385</v>
+        <v>38014</v>
       </c>
       <c r="B42">
         <v>1</v>
-      </c>
-      <c r="C42">
-        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>38433</v>
+        <v>38062</v>
       </c>
       <c r="B43">
         <v>1</v>
-      </c>
-      <c r="C43">
-        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>38475</v>
+        <v>38111</v>
       </c>
       <c r="B44">
         <v>1</v>
-      </c>
-      <c r="C44">
-        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>38533</v>
+        <v>38168</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -798,7 +774,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>38573</v>
+        <v>38209</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -809,7 +785,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>38615</v>
+        <v>38251</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -820,7 +796,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>38657</v>
+        <v>38301</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -831,7 +807,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>38699</v>
+        <v>38335</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -842,7 +818,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>38748</v>
+        <v>38385</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -853,7 +829,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>38804</v>
+        <v>38433</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -864,7 +840,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>38847</v>
+        <v>38475</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -875,7 +851,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>38897</v>
+        <v>38533</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -886,71 +862,95 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>38937</v>
+        <v>38573</v>
       </c>
       <c r="B54">
         <v>1</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>38980</v>
+        <v>38615</v>
       </c>
       <c r="B55">
         <v>1</v>
+      </c>
+      <c r="C55">
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>39015</v>
+        <v>38657</v>
       </c>
       <c r="B56">
         <v>1</v>
+      </c>
+      <c r="C56">
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>39063</v>
+        <v>38699</v>
       </c>
       <c r="B57">
         <v>1</v>
+      </c>
+      <c r="C57">
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>39113</v>
+        <v>38748</v>
       </c>
       <c r="B58">
         <v>1</v>
+      </c>
+      <c r="C58">
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>39162</v>
+        <v>38804</v>
       </c>
       <c r="B59">
         <v>1</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>39211</v>
+        <v>38847</v>
       </c>
       <c r="B60">
         <v>1</v>
+      </c>
+      <c r="C60">
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>39261</v>
+        <v>38897</v>
       </c>
       <c r="B61">
         <v>1</v>
+      </c>
+      <c r="C61">
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>39301</v>
+        <v>38937</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -958,73 +958,55 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>39343</v>
+        <v>38980</v>
       </c>
       <c r="B63">
         <v>1</v>
-      </c>
-      <c r="C63">
-        <v>-50</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>39386</v>
+        <v>39015</v>
       </c>
       <c r="B64">
         <v>1</v>
-      </c>
-      <c r="C64">
-        <v>-25</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>39427</v>
+        <v>39063</v>
       </c>
       <c r="B65">
         <v>1</v>
-      </c>
-      <c r="C65">
-        <v>-25</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>39477</v>
+        <v>39113</v>
       </c>
       <c r="B66">
         <v>1</v>
-      </c>
-      <c r="C66">
-        <v>-50</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>39525</v>
+        <v>39162</v>
       </c>
       <c r="B67">
         <v>1</v>
-      </c>
-      <c r="C67">
-        <v>-75</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>39568</v>
+        <v>39211</v>
       </c>
       <c r="B68">
         <v>1</v>
-      </c>
-      <c r="C68">
-        <v>-25</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>39624</v>
+        <v>39261</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1032,7 +1014,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>39665</v>
+        <v>39301</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1040,61 +1022,73 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>39707</v>
+        <v>39343</v>
       </c>
       <c r="B71">
         <v>1</v>
+      </c>
+      <c r="C71">
+        <v>-50</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>39750</v>
+        <v>39386</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <v>-50</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>39798</v>
+        <v>39427</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>-75</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>39841</v>
+        <v>39477</v>
       </c>
       <c r="B74">
         <v>1</v>
+      </c>
+      <c r="C74">
+        <v>-50</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>39890</v>
+        <v>39525</v>
       </c>
       <c r="B75">
         <v>1</v>
+      </c>
+      <c r="C75">
+        <v>-75</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>39932</v>
+        <v>39568</v>
       </c>
       <c r="B76">
         <v>1</v>
+      </c>
+      <c r="C76">
+        <v>-25</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>39988</v>
+        <v>39624</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1102,7 +1096,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>40037</v>
+        <v>39665</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1110,7 +1104,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>40079</v>
+        <v>39707</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1118,135 +1112,141 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
+        <v>39750</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>39798</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>39841</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>39890</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>39932</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>39988</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>40037</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>40079</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>40121</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>40163</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>40205</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>40253</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>40296</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>40352</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>40400</v>
       </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>40442</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>40485</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>40526</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>40569</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>40617</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>40660</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>40716</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>40764</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>40807</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>40849</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>40890</v>
+        <v>40526</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>40933</v>
+        <v>40569</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>40981</v>
+        <v>40617</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>41024</v>
+        <v>40660</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>41080</v>
+        <v>40716</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>41122</v>
+        <v>40764</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>41165</v>
+        <v>40807</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>41206</v>
+        <v>40849</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>41255</v>
+        <v>40890</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>41304</v>
+        <v>40933</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>41353</v>
+        <v>40981</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>41395</v>
+        <v>41024</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>41444</v>
+        <v>41080</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>41486</v>
+        <v>41122</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>41535</v>
+        <v>41165</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>41577</v>
+        <v>41206</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>41626</v>
+        <v>41255</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>41668</v>
+        <v>41304</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>41717</v>
+        <v>41353</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>41759</v>
+        <v>41395</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>41808</v>
+        <v>41444</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>41850</v>
+        <v>41486</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>41899</v>
+        <v>41535</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>41941</v>
+        <v>41577</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>41990</v>
+        <v>41626</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>42032</v>
+        <v>41668</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>42081</v>
+        <v>41717</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>42123</v>
+        <v>41759</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>42172</v>
+        <v>41808</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>42214</v>
+        <v>41850</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>42264</v>
+        <v>41899</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>42305</v>
+        <v>41941</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -1510,18 +1510,15 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>42354</v>
+        <v>41990</v>
       </c>
       <c r="B129">
         <v>1</v>
-      </c>
-      <c r="C129">
-        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>42396</v>
+        <v>42032</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -1529,7 +1526,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>42445</v>
+        <v>42081</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -1537,7 +1534,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>42487</v>
+        <v>42123</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -1545,7 +1542,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>42536</v>
+        <v>42172</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -1553,7 +1550,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>42578</v>
+        <v>42214</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -1561,7 +1558,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>42634</v>
+        <v>42264</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -1569,7 +1566,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>42676</v>
+        <v>42305</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -1577,7 +1574,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>42718</v>
+        <v>42354</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -1588,7 +1585,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>42767</v>
+        <v>42396</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -1596,7 +1593,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>42809</v>
+        <v>42445</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -1604,7 +1601,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>42858</v>
+        <v>42487</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -1612,18 +1609,15 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>42900</v>
+        <v>42536</v>
       </c>
       <c r="B141">
         <v>1</v>
-      </c>
-      <c r="C141">
-        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>42942</v>
+        <v>42578</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -1631,7 +1625,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>42998</v>
+        <v>42634</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -1639,7 +1633,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>43040</v>
+        <v>42676</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -1647,7 +1641,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>43082</v>
+        <v>42718</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -1658,7 +1652,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>43131</v>
+        <v>42767</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1666,18 +1660,15 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>43180</v>
+        <v>42809</v>
       </c>
       <c r="B147">
         <v>1</v>
-      </c>
-      <c r="C147">
-        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>43222</v>
+        <v>42858</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -1685,7 +1676,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>43264</v>
+        <v>42900</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -1696,7 +1687,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>43313</v>
+        <v>42942</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -1704,18 +1695,15 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>43369</v>
+        <v>42998</v>
       </c>
       <c r="B151">
         <v>1</v>
-      </c>
-      <c r="C151">
-        <v>25</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>43412</v>
+        <v>43040</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -1723,7 +1711,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>43453</v>
+        <v>43082</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -1734,7 +1722,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>43495</v>
+        <v>43131</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -1742,15 +1730,18 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>43544</v>
+        <v>43180</v>
       </c>
       <c r="B155">
         <v>1</v>
+      </c>
+      <c r="C155">
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>43586</v>
+        <v>43222</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -1758,56 +1749,56 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>43635</v>
+        <v>43264</v>
       </c>
       <c r="B157">
         <v>1</v>
+      </c>
+      <c r="C157">
+        <v>25</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>43677</v>
+        <v>43313</v>
       </c>
       <c r="B158">
         <v>1</v>
-      </c>
-      <c r="C158">
-        <v>-25</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>43727</v>
+        <v>43369</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159">
-        <v>-25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>43768</v>
+        <v>43412</v>
       </c>
       <c r="B160">
         <v>1</v>
-      </c>
-      <c r="C160">
-        <v>-25</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>43810</v>
+        <v>43453</v>
       </c>
       <c r="B161">
         <v>1</v>
+      </c>
+      <c r="C161">
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>43859</v>
+        <v>43495</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -1815,7 +1806,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>43893</v>
+        <v>43544</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -1823,18 +1814,15 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>43906</v>
+        <v>43586</v>
       </c>
       <c r="B164">
         <v>1</v>
-      </c>
-      <c r="C164">
-        <v>-100</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>43950</v>
+        <v>43635</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -1842,31 +1830,40 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>43992</v>
+        <v>43677</v>
       </c>
       <c r="B166">
         <v>1</v>
+      </c>
+      <c r="C166">
+        <v>-25</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>44041</v>
+        <v>43727</v>
       </c>
       <c r="B167">
         <v>1</v>
+      </c>
+      <c r="C167">
+        <v>-25</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>44090</v>
+        <v>43768</v>
       </c>
       <c r="B168">
         <v>1</v>
+      </c>
+      <c r="C168">
+        <v>-25</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>44140</v>
+        <v>43810</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -1874,7 +1871,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>44181</v>
+        <v>43859</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -1882,7 +1879,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>44223</v>
+        <v>43893</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -1890,15 +1887,18 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>44272</v>
+        <v>43906</v>
       </c>
       <c r="B172">
         <v>1</v>
+      </c>
+      <c r="C172">
+        <v>-100</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>44314</v>
+        <v>43950</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>44363</v>
+        <v>43992</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>44405</v>
+        <v>44041</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>44461</v>
+        <v>44090</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>44503</v>
+        <v>44140</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>44545</v>
+        <v>44181</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>44587</v>
+        <v>44223</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -1954,95 +1954,71 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>44636</v>
+        <v>44272</v>
       </c>
       <c r="B180">
         <v>1</v>
-      </c>
-      <c r="C180">
-        <v>25</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>44685</v>
+        <v>44314</v>
       </c>
       <c r="B181">
         <v>1</v>
-      </c>
-      <c r="C181">
-        <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>44727</v>
+        <v>44363</v>
       </c>
       <c r="B182">
         <v>1</v>
-      </c>
-      <c r="C182">
-        <v>75</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>44769</v>
+        <v>44405</v>
       </c>
       <c r="B183">
         <v>1</v>
-      </c>
-      <c r="C183">
-        <v>75</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>44825</v>
+        <v>44461</v>
       </c>
       <c r="B184">
         <v>1</v>
-      </c>
-      <c r="C184">
-        <v>75</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>44867</v>
+        <v>44503</v>
       </c>
       <c r="B185">
         <v>1</v>
-      </c>
-      <c r="C185">
-        <v>75</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>44909</v>
+        <v>44545</v>
       </c>
       <c r="B186">
         <v>1</v>
-      </c>
-      <c r="C186">
-        <v>50</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>44958</v>
+        <v>44587</v>
       </c>
       <c r="B187">
         <v>1</v>
-      </c>
-      <c r="C187">
-        <v>25</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>45007</v>
+        <v>44636</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -2053,47 +2029,135 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>45049</v>
+        <v>44685</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
       <c r="C189">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>45091</v>
+        <v>44727</v>
       </c>
       <c r="B190">
         <v>1</v>
+      </c>
+      <c r="C190">
+        <v>75</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>45133</v>
+        <v>44769</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
       <c r="C191">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
+        <v>44825</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45007</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45049</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45133</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
         <v>45189</v>
       </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
         <v>45231</v>
       </c>
-      <c r="B193">
+      <c r="B201">
         <v>1</v>
       </c>
     </row>
